--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
   <si>
     <t>Anlass</t>
   </si>
@@ -289,9 +289,6 @@
     <t>12:23.40</t>
   </si>
   <si>
-    <t>Mit Alexander</t>
-  </si>
-  <si>
     <t>Luzerner Stadtlauf (Musegg Classic)</t>
   </si>
   <si>
@@ -332,6 +329,12 @@
   </si>
   <si>
     <t>2:31:06.0</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>1:09:08.3</t>
   </si>
 </sst>
 </file>
@@ -1160,10 +1163,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O53"/>
+  <dimension ref="A1:O56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2142,48 +2145,27 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21097.5</v>
+        <v>1600</v>
       </c>
       <c r="F23">
-        <v>2007</v>
-      </c>
-      <c r="G23">
-        <v>639</v>
-      </c>
-      <c r="I23" t="s">
-        <v>52</v>
-      </c>
-      <c r="J23">
-        <v>20</v>
-      </c>
-      <c r="K23">
-        <v>70</v>
-      </c>
-      <c r="L23">
-        <v>49</v>
-      </c>
-      <c r="M23">
-        <v>205</v>
-      </c>
-      <c r="O23" t="s">
-        <v>53</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -2195,36 +2177,36 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21097.5</v>
+        <v>16093</v>
       </c>
       <c r="F24">
-        <v>2008</v>
+        <v>2019</v>
       </c>
       <c r="G24">
-        <v>645</v>
+        <v>20204</v>
+      </c>
+      <c r="H24" t="s">
+        <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="J24">
-        <v>27</v>
+        <v>145</v>
       </c>
       <c r="K24">
-        <v>79</v>
+        <v>1110</v>
       </c>
       <c r="L24">
-        <v>58</v>
+        <v>978</v>
       </c>
       <c r="M24">
-        <v>211</v>
-      </c>
-      <c r="O24" t="s">
-        <v>55</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -2236,33 +2218,36 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>3700</v>
+        <v>21097.5</v>
       </c>
       <c r="F25">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G25">
-        <v>176</v>
+        <v>639</v>
       </c>
       <c r="I25" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J25">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K25">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L25">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M25">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="O25" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -2274,31 +2259,31 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>3700</v>
+        <v>21097.5</v>
       </c>
       <c r="F26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="G26">
-        <v>135</v>
+        <v>645</v>
       </c>
       <c r="I26" t="s">
+        <v>54</v>
+      </c>
+      <c r="J26">
+        <v>27</v>
+      </c>
+      <c r="K26">
+        <v>79</v>
+      </c>
+      <c r="L26">
         <v>58</v>
       </c>
-      <c r="J26">
-        <v>38</v>
-      </c>
-      <c r="K26">
-        <v>130</v>
-      </c>
-      <c r="L26">
-        <v>51</v>
-      </c>
       <c r="M26">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2318,28 +2303,25 @@
         <v>3700</v>
       </c>
       <c r="F27">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G27">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J27">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K27">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="L27">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M27">
-        <v>121</v>
-      </c>
-      <c r="O27" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -2359,28 +2341,28 @@
         <v>3700</v>
       </c>
       <c r="F28">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G28">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I28" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J28">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K28">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L28">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M28">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="O28" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2400,31 +2382,28 @@
         <v>3700</v>
       </c>
       <c r="F29">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G29">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="I29" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J29">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L29">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M29">
-        <v>193</v>
-      </c>
-      <c r="N29">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="O29" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2444,36 +2423,33 @@
         <v>3700</v>
       </c>
       <c r="F30">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G30">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="I30" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J30">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K30">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L30">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M30">
-        <v>228</v>
-      </c>
-      <c r="N30">
-        <v>76.900000000000006</v>
+        <v>155</v>
       </c>
       <c r="O30" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
@@ -2485,33 +2461,39 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>21097.5</v>
+        <v>3700</v>
       </c>
       <c r="F31">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="G31">
-        <v>258</v>
+        <v>153</v>
       </c>
       <c r="I31" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J31">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="K31">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L31">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="M31">
-        <v>325</v>
+        <v>193</v>
+      </c>
+      <c r="N31">
+        <v>76</v>
+      </c>
+      <c r="O31" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
@@ -2523,31 +2505,34 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>21097.5</v>
+        <v>3700</v>
       </c>
       <c r="F32">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="G32">
-        <v>237</v>
+        <v>175</v>
       </c>
       <c r="I32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="J32">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="K32">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="L32">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="M32">
-        <v>350</v>
+        <v>228</v>
+      </c>
+      <c r="N32">
+        <v>76.900000000000006</v>
       </c>
       <c r="O32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2567,33 +2552,30 @@
         <v>21097.5</v>
       </c>
       <c r="F33">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="G33">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="I33" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J33">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K33">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L33">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="M33">
-        <v>335</v>
-      </c>
-      <c r="O33" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2605,36 +2587,36 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>3600</v>
+        <v>21097.5</v>
       </c>
       <c r="F34">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="G34">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="I34" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J34">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K34">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="L34">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="M34">
-        <v>171</v>
-      </c>
-      <c r="N34">
-        <v>77.099999999999994</v>
+        <v>350</v>
+      </c>
+      <c r="O34" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2646,36 +2628,36 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>4800</v>
+        <v>21097.5</v>
       </c>
       <c r="F35">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G35">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I35" t="s">
+        <v>71</v>
+      </c>
+      <c r="J35">
+        <v>25</v>
+      </c>
+      <c r="K35">
+        <v>89</v>
+      </c>
+      <c r="L35">
         <v>75</v>
       </c>
-      <c r="J35">
-        <v>15</v>
-      </c>
-      <c r="K35">
-        <v>43</v>
-      </c>
-      <c r="L35">
-        <v>45</v>
-      </c>
       <c r="M35">
-        <v>158</v>
-      </c>
-      <c r="N35">
-        <v>76.3</v>
+        <v>335</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2687,33 +2669,36 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>21097.5</v>
+        <v>3600</v>
       </c>
       <c r="F36">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="G36">
-        <v>5481</v>
+        <v>307</v>
       </c>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J36">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="K36">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="L36">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="M36">
-        <v>2241</v>
+        <v>171</v>
+      </c>
+      <c r="N36">
+        <v>77.099999999999994</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2725,36 +2710,36 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>21097.5</v>
+        <v>4800</v>
       </c>
       <c r="F37">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G37">
-        <v>4610</v>
-      </c>
-      <c r="H37">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J37">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="K37">
-        <v>1164</v>
+        <v>43</v>
       </c>
       <c r="L37">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="M37">
-        <v>4123</v>
+        <v>158</v>
+      </c>
+      <c r="N37">
+        <v>76.3</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2769,31 +2754,25 @@
         <v>21097.5</v>
       </c>
       <c r="F38">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="G38">
-        <v>5640</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+        <v>5481</v>
       </c>
       <c r="I38" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J38">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="K38">
-        <v>1023</v>
+        <v>390</v>
       </c>
       <c r="L38">
-        <v>792</v>
+        <v>400</v>
       </c>
       <c r="M38">
-        <v>3744</v>
-      </c>
-      <c r="O38" t="s">
-        <v>81</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -2813,31 +2792,28 @@
         <v>21097.5</v>
       </c>
       <c r="F39">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G39">
-        <v>2884</v>
+        <v>4610</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J39">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="K39">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="L39">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="M39">
-        <v>4163</v>
-      </c>
-      <c r="O39" t="s">
-        <v>83</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2857,28 +2833,31 @@
         <v>21097.5</v>
       </c>
       <c r="F40">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G40">
-        <v>3865</v>
+        <v>5640</v>
       </c>
       <c r="H40">
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J40">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="K40">
-        <v>1226</v>
+        <v>1023</v>
       </c>
       <c r="L40">
-        <v>470</v>
+        <v>792</v>
       </c>
       <c r="M40">
-        <v>4243</v>
+        <v>3744</v>
+      </c>
+      <c r="O40" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2898,34 +2877,31 @@
         <v>21097.5</v>
       </c>
       <c r="F41">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G41">
-        <v>3654</v>
+        <v>2884</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J41">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="K41">
-        <v>601</v>
+        <v>1169</v>
       </c>
       <c r="L41">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="M41">
-        <v>4071</v>
-      </c>
-      <c r="N41">
-        <v>76.5</v>
+        <v>4163</v>
       </c>
       <c r="O41" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2945,34 +2921,28 @@
         <v>21097.5</v>
       </c>
       <c r="F42">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G42">
-        <v>3001</v>
+        <v>3865</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J42">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="K42">
-        <v>594</v>
+        <v>1226</v>
       </c>
       <c r="L42">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="M42">
-        <v>4163</v>
-      </c>
-      <c r="N42">
-        <v>76.3</v>
-      </c>
-      <c r="O42" t="s">
-        <v>29</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2992,68 +2962,86 @@
         <v>21097.5</v>
       </c>
       <c r="F43">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G43">
-        <v>2184</v>
+        <v>3654</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I43" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J43">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K43">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="L43">
-        <v>553</v>
+        <v>353</v>
       </c>
       <c r="M43">
-        <v>4031</v>
+        <v>4071</v>
+      </c>
+      <c r="N43">
+        <v>76.5</v>
       </c>
       <c r="O43" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>21097.5</v>
+      </c>
+      <c r="F44">
+        <v>2017</v>
+      </c>
+      <c r="G44">
+        <v>3001</v>
+      </c>
+      <c r="H44">
         <v>1</v>
       </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>1600</v>
-      </c>
-      <c r="F44">
-        <v>2018</v>
-      </c>
-      <c r="G44">
-        <v>18521</v>
-      </c>
       <c r="I44" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="J44">
+        <v>61</v>
+      </c>
+      <c r="K44">
+        <v>594</v>
+      </c>
+      <c r="L44">
+        <v>330</v>
+      </c>
+      <c r="M44">
+        <v>4163</v>
       </c>
       <c r="N44">
-        <v>76.5</v>
+        <v>76.3</v>
       </c>
       <c r="O44" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
@@ -3065,253 +3053,349 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>7200</v>
+        <v>21097.5</v>
       </c>
       <c r="F45">
         <v>2018</v>
       </c>
       <c r="G45">
-        <v>6748</v>
+        <v>2184</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="J45">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="K45">
-        <v>103</v>
+        <v>572</v>
       </c>
       <c r="L45">
-        <v>63</v>
+        <v>553</v>
       </c>
       <c r="M45">
-        <v>456</v>
-      </c>
-      <c r="N45">
-        <v>76.5</v>
+        <v>4031</v>
+      </c>
+      <c r="O45" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>15000</v>
+        <v>1600</v>
       </c>
       <c r="F46">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G46">
-        <v>3050</v>
-      </c>
-      <c r="H46">
-        <v>14</v>
+        <v>18521</v>
       </c>
       <c r="I46" t="s">
-        <v>95</v>
-      </c>
-      <c r="J46">
-        <v>120</v>
-      </c>
-      <c r="K46">
-        <v>358</v>
-      </c>
-      <c r="L46">
-        <v>718</v>
-      </c>
-      <c r="M46">
-        <v>3239</v>
+        <v>90</v>
+      </c>
+      <c r="N46">
+        <v>76.5</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47">
-        <v>12000</v>
+        <v>1600</v>
       </c>
       <c r="F47">
-        <v>2007</v>
-      </c>
-      <c r="G47">
-        <v>32910</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47" t="s">
-        <v>97</v>
-      </c>
-      <c r="J47">
-        <v>4444</v>
-      </c>
-      <c r="L47">
-        <v>3413</v>
-      </c>
-      <c r="O47" t="s">
-        <v>98</v>
+        <v>2019</v>
+      </c>
+      <c r="N47">
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>7200</v>
+      </c>
+      <c r="F48">
+        <v>2018</v>
+      </c>
+      <c r="G48">
+        <v>6748</v>
+      </c>
+      <c r="I48" t="s">
+        <v>92</v>
+      </c>
+      <c r="J48">
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <v>103</v>
+      </c>
+      <c r="L48">
+        <v>63</v>
+      </c>
+      <c r="M48">
+        <v>456</v>
+      </c>
+      <c r="N48">
+        <v>76.5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>15000</v>
+      </c>
+      <c r="F49">
+        <v>2013</v>
+      </c>
+      <c r="G49">
+        <v>3050</v>
+      </c>
+      <c r="H49">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>94</v>
+      </c>
+      <c r="J49">
+        <v>120</v>
+      </c>
+      <c r="K49">
+        <v>358</v>
+      </c>
+      <c r="L49">
+        <v>718</v>
+      </c>
+      <c r="M49">
+        <v>3239</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>12000</v>
+      </c>
+      <c r="F50">
+        <v>2007</v>
+      </c>
+      <c r="G50">
+        <v>32910</v>
+      </c>
+      <c r="H50">
+        <v>2</v>
+      </c>
+      <c r="I50" t="s">
+        <v>96</v>
+      </c>
+      <c r="J50">
+        <v>4444</v>
+      </c>
+      <c r="L50">
+        <v>3413</v>
+      </c>
+      <c r="O50" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>2014</v>
+      </c>
+      <c r="G51">
+        <v>2080</v>
+      </c>
+      <c r="I51" t="s">
         <v>100</v>
       </c>
-      <c r="C48">
-        <v>0</v>
-      </c>
-      <c r="D48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>2014</v>
-      </c>
-      <c r="G48">
-        <v>2080</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="J51">
+        <v>10</v>
+      </c>
+      <c r="K51">
+        <v>58</v>
+      </c>
+      <c r="L51">
+        <v>40</v>
+      </c>
+      <c r="M51">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>101</v>
       </c>
-      <c r="J48">
-        <v>10</v>
-      </c>
-      <c r="K48">
-        <v>58</v>
-      </c>
-      <c r="L48">
-        <v>40</v>
-      </c>
-      <c r="M48">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="B49" t="s">
-        <v>100</v>
-      </c>
-      <c r="C49">
-        <v>0</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>2001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="F54">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>102</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="F55">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>103</v>
       </c>
-      <c r="B50" t="s">
-        <v>100</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>2009</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>103</v>
-      </c>
-      <c r="B51" t="s">
-        <v>100</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>2011</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>103</v>
-      </c>
-      <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>2012</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>21097.5</v>
+      </c>
+      <c r="F56">
+        <v>2018</v>
+      </c>
+      <c r="G56">
+        <v>254</v>
+      </c>
+      <c r="I56" t="s">
         <v>104</v>
       </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-      <c r="D53">
-        <v>0</v>
-      </c>
-      <c r="E53">
-        <v>21097.5</v>
-      </c>
-      <c r="F53">
-        <v>2018</v>
-      </c>
-      <c r="G53">
-        <v>254</v>
-      </c>
-      <c r="I53" t="s">
-        <v>105</v>
-      </c>
-      <c r="J53">
+      <c r="J56">
         <v>5</v>
       </c>
-      <c r="K53">
+      <c r="K56">
         <v>54</v>
       </c>
-      <c r="L53">
+      <c r="L56">
         <v>5</v>
       </c>
-      <c r="M53">
+      <c r="M56">
         <v>54</v>
       </c>
-      <c r="N53">
+      <c r="N56">
         <v>76.7</v>
       </c>
     </row>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
   <si>
     <t>Anlass</t>
   </si>
@@ -335,6 +335,12 @@
   </si>
   <si>
     <t>1:09:08.3</t>
+  </si>
+  <si>
+    <t>1:22:52.0</t>
+  </si>
+  <si>
+    <t>Bei Schwandegg in 46'</t>
   </si>
 </sst>
 </file>
@@ -1163,10 +1169,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O56"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2537,7 +2543,7 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
@@ -2549,28 +2555,34 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>21097.5</v>
+        <v>3700</v>
       </c>
       <c r="F33">
-        <v>2011</v>
+        <v>2019</v>
       </c>
       <c r="G33">
-        <v>258</v>
+        <v>111</v>
       </c>
       <c r="I33" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="J33">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="K33">
-        <v>88</v>
+        <v>113</v>
       </c>
       <c r="L33">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="M33">
-        <v>325</v>
+        <v>243</v>
+      </c>
+      <c r="N33">
+        <v>76.599999999999994</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -2590,28 +2602,25 @@
         <v>21097.5</v>
       </c>
       <c r="F34">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G34">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="I34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J34">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="K34">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="L34">
-        <v>86</v>
+        <v>128</v>
       </c>
       <c r="M34">
-        <v>350</v>
-      </c>
-      <c r="O34" t="s">
-        <v>70</v>
+        <v>325</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -2631,33 +2640,33 @@
         <v>21097.5</v>
       </c>
       <c r="F35">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G35">
-        <v>333</v>
+        <v>237</v>
       </c>
       <c r="I35" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J35">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="K35">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="L35">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="M35">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="O35" t="s">
-        <v>29</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
@@ -2669,36 +2678,36 @@
         <v>0</v>
       </c>
       <c r="E36">
-        <v>3600</v>
+        <v>21097.5</v>
       </c>
       <c r="F36">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G36">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I36" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="J36">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="K36">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="L36">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="M36">
-        <v>171</v>
-      </c>
-      <c r="N36">
-        <v>77.099999999999994</v>
+        <v>335</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2710,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>4800</v>
+        <v>3600</v>
       </c>
       <c r="F37">
         <v>2017</v>
@@ -2719,27 +2728,27 @@
         <v>307</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="J37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K37">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="L37">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M37">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="N37">
-        <v>76.3</v>
+        <v>77.099999999999994</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2751,33 +2760,36 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>21097.5</v>
+        <v>4800</v>
       </c>
       <c r="F38">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="G38">
-        <v>5481</v>
+        <v>307</v>
       </c>
       <c r="I38" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J38">
-        <v>99</v>
+        <v>15</v>
       </c>
       <c r="K38">
-        <v>390</v>
+        <v>43</v>
       </c>
       <c r="L38">
-        <v>400</v>
+        <v>45</v>
       </c>
       <c r="M38">
-        <v>2241</v>
+        <v>158</v>
+      </c>
+      <c r="N38">
+        <v>76.3</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2792,28 +2804,25 @@
         <v>21097.5</v>
       </c>
       <c r="F39">
-        <v>2011</v>
+        <v>2004</v>
       </c>
       <c r="G39">
-        <v>4610</v>
-      </c>
-      <c r="H39">
-        <v>2</v>
+        <v>5481</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J39">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="K39">
-        <v>1164</v>
+        <v>390</v>
       </c>
       <c r="L39">
-        <v>453</v>
+        <v>400</v>
       </c>
       <c r="M39">
-        <v>4123</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -2833,31 +2842,28 @@
         <v>21097.5</v>
       </c>
       <c r="F40">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G40">
-        <v>5640</v>
+        <v>4610</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J40">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="K40">
-        <v>1023</v>
+        <v>1164</v>
       </c>
       <c r="L40">
-        <v>792</v>
+        <v>453</v>
       </c>
       <c r="M40">
-        <v>3744</v>
-      </c>
-      <c r="O40" t="s">
-        <v>81</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -2877,31 +2883,31 @@
         <v>21097.5</v>
       </c>
       <c r="F41">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="G41">
-        <v>2884</v>
+        <v>5640</v>
       </c>
       <c r="H41">
         <v>1</v>
       </c>
       <c r="I41" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J41">
-        <v>192</v>
+        <v>261</v>
       </c>
       <c r="K41">
-        <v>1169</v>
+        <v>1023</v>
       </c>
       <c r="L41">
-        <v>496</v>
+        <v>792</v>
       </c>
       <c r="M41">
-        <v>4163</v>
+        <v>3744</v>
       </c>
       <c r="O41" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2921,28 +2927,31 @@
         <v>21097.5</v>
       </c>
       <c r="F42">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="G42">
-        <v>3865</v>
+        <v>2884</v>
       </c>
       <c r="H42">
         <v>1</v>
       </c>
       <c r="I42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J42">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="K42">
-        <v>1226</v>
+        <v>1169</v>
       </c>
       <c r="L42">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="M42">
-        <v>4243</v>
+        <v>4163</v>
+      </c>
+      <c r="O42" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2962,34 +2971,28 @@
         <v>21097.5</v>
       </c>
       <c r="F43">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="G43">
-        <v>3654</v>
+        <v>3865</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I43" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J43">
-        <v>60</v>
+        <v>171</v>
       </c>
       <c r="K43">
-        <v>601</v>
+        <v>1226</v>
       </c>
       <c r="L43">
-        <v>353</v>
+        <v>470</v>
       </c>
       <c r="M43">
-        <v>4071</v>
-      </c>
-      <c r="N43">
-        <v>76.5</v>
-      </c>
-      <c r="O43" t="s">
-        <v>29</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3009,31 +3012,31 @@
         <v>21097.5</v>
       </c>
       <c r="F44">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G44">
-        <v>3001</v>
+        <v>3654</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J44">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K44">
-        <v>594</v>
+        <v>601</v>
       </c>
       <c r="L44">
-        <v>330</v>
+        <v>353</v>
       </c>
       <c r="M44">
-        <v>4163</v>
+        <v>4071</v>
       </c>
       <c r="N44">
-        <v>76.3</v>
+        <v>76.5</v>
       </c>
       <c r="O44" t="s">
         <v>29</v>
@@ -3056,60 +3059,78 @@
         <v>21097.5</v>
       </c>
       <c r="F45">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="G45">
-        <v>2184</v>
+        <v>3001</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J45">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="K45">
-        <v>572</v>
+        <v>594</v>
       </c>
       <c r="L45">
-        <v>553</v>
+        <v>330</v>
       </c>
       <c r="M45">
-        <v>4031</v>
+        <v>4163</v>
+      </c>
+      <c r="N45">
+        <v>76.3</v>
       </c>
       <c r="O45" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1600</v>
+        <v>21097.5</v>
       </c>
       <c r="F46">
         <v>2018</v>
       </c>
       <c r="G46">
-        <v>18521</v>
+        <v>2184</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
       </c>
       <c r="I46" t="s">
-        <v>90</v>
-      </c>
-      <c r="N46">
-        <v>76.5</v>
+        <v>87</v>
+      </c>
+      <c r="J46">
+        <v>91</v>
+      </c>
+      <c r="K46">
+        <v>572</v>
+      </c>
+      <c r="L46">
+        <v>553</v>
+      </c>
+      <c r="M46">
+        <v>4031</v>
+      </c>
+      <c r="O46" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3123,62 +3144,50 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47">
         <v>1600</v>
       </c>
       <c r="F47">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G47">
+        <v>18521</v>
+      </c>
+      <c r="I47" t="s">
+        <v>90</v>
       </c>
       <c r="N47">
-        <v>75.400000000000006</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48">
-        <v>7200</v>
+        <v>1600</v>
       </c>
       <c r="F48">
-        <v>2018</v>
-      </c>
-      <c r="G48">
-        <v>6748</v>
-      </c>
-      <c r="I48" t="s">
-        <v>92</v>
-      </c>
-      <c r="J48">
-        <v>11</v>
-      </c>
-      <c r="K48">
-        <v>103</v>
-      </c>
-      <c r="L48">
-        <v>63</v>
-      </c>
-      <c r="M48">
-        <v>456</v>
+        <v>2019</v>
       </c>
       <c r="N48">
-        <v>76.5</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -3190,36 +3199,36 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>15000</v>
+        <v>7200</v>
       </c>
       <c r="F49">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G49">
-        <v>3050</v>
-      </c>
-      <c r="H49">
-        <v>14</v>
+        <v>6748</v>
       </c>
       <c r="I49" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J49">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="K49">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="L49">
-        <v>718</v>
+        <v>63</v>
       </c>
       <c r="M49">
-        <v>3239</v>
+        <v>456</v>
+      </c>
+      <c r="N49">
+        <v>76.5</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -3231,36 +3240,39 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F50">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="G50">
-        <v>32910</v>
+        <v>3050</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I50" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J50">
-        <v>4444</v>
+        <v>120</v>
+      </c>
+      <c r="K50">
+        <v>358</v>
       </c>
       <c r="L50">
-        <v>3413</v>
-      </c>
-      <c r="O50" t="s">
-        <v>97</v>
+        <v>718</v>
+      </c>
+      <c r="M50">
+        <v>3239</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B51" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -3268,31 +3280,34 @@
       <c r="D51">
         <v>0</v>
       </c>
+      <c r="E51">
+        <v>12000</v>
+      </c>
       <c r="F51">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="G51">
-        <v>2080</v>
+        <v>32910</v>
+      </c>
+      <c r="H51">
+        <v>2</v>
       </c>
       <c r="I51" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J51">
-        <v>10</v>
-      </c>
-      <c r="K51">
-        <v>58</v>
+        <v>4444</v>
       </c>
       <c r="L51">
-        <v>40</v>
-      </c>
-      <c r="M51">
-        <v>188</v>
+        <v>3413</v>
+      </c>
+      <c r="O51" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
         <v>99</v>
@@ -3304,12 +3319,30 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>2001</v>
+        <v>2014</v>
+      </c>
+      <c r="G52">
+        <v>2080</v>
+      </c>
+      <c r="I52" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52">
+        <v>10</v>
+      </c>
+      <c r="K52">
+        <v>58</v>
+      </c>
+      <c r="L52">
+        <v>40</v>
+      </c>
+      <c r="M52">
+        <v>188</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
         <v>99</v>
@@ -3321,7 +3354,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -3338,7 +3371,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3355,47 +3388,64 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
+        <v>102</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
-        <v>16</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
-      </c>
-      <c r="D56">
-        <v>0</v>
-      </c>
-      <c r="E56">
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
         <v>21097.5</v>
       </c>
-      <c r="F56">
+      <c r="F57">
         <v>2018</v>
       </c>
-      <c r="G56">
+      <c r="G57">
         <v>254</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I57" t="s">
         <v>104</v>
       </c>
-      <c r="J56">
+      <c r="J57">
         <v>5</v>
       </c>
-      <c r="K56">
+      <c r="K57">
         <v>54</v>
       </c>
-      <c r="L56">
+      <c r="L57">
         <v>5</v>
       </c>
-      <c r="M56">
+      <c r="M57">
         <v>54</v>
       </c>
-      <c r="N56">
+      <c r="N57">
         <v>76.7</v>
       </c>
     </row>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="19155" windowHeight="8505"/>
   </bookViews>
@@ -346,7 +351,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -825,8 +830,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -878,6 +886,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -925,7 +936,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,7 +971,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,8 +1182,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1185,7 +1196,7 @@
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
@@ -1218,7 +1229,7 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -1259,7 +1270,7 @@
       <c r="F2">
         <v>2002</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="J2">
@@ -1294,7 +1305,7 @@
       <c r="F3">
         <v>2008</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="J3">
@@ -1338,7 +1349,7 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J4">
@@ -1379,7 +1390,7 @@
       <c r="H5">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="J5">
@@ -1423,7 +1434,7 @@
       <c r="H6">
         <v>1</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J6">
@@ -1467,7 +1478,7 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7">
@@ -1508,7 +1519,7 @@
       <c r="H8">
         <v>5</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="J8">
@@ -1552,7 +1563,7 @@
       <c r="H9">
         <v>4</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="J9">
@@ -1596,7 +1607,7 @@
       <c r="H10">
         <v>2</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1" t="s">
         <v>30</v>
       </c>
       <c r="J10">
@@ -1640,7 +1651,7 @@
       <c r="H11">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J11">
@@ -1684,7 +1695,7 @@
       <c r="H12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1" t="s">
         <v>34</v>
       </c>
       <c r="J12">
@@ -1728,7 +1739,7 @@
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1" t="s">
         <v>36</v>
       </c>
       <c r="J13">
@@ -1772,7 +1783,7 @@
       <c r="H14">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1" t="s">
         <v>38</v>
       </c>
       <c r="J14">
@@ -1816,7 +1827,7 @@
       <c r="H15">
         <v>2</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1" t="s">
         <v>39</v>
       </c>
       <c r="J15">
@@ -1860,7 +1871,7 @@
       <c r="H16">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J16">
@@ -1904,7 +1915,7 @@
       <c r="H17">
         <v>2</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J17">
@@ -1948,7 +1959,7 @@
       <c r="H18">
         <v>3</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="J18">
@@ -1992,7 +2003,7 @@
       <c r="H19">
         <v>3</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J19">
@@ -2036,7 +2047,7 @@
       <c r="H20">
         <v>3</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J20">
@@ -2083,7 +2094,7 @@
       <c r="H21">
         <v>3</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J21">
@@ -2130,7 +2141,7 @@
       <c r="H22">
         <v>2</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="1" t="s">
         <v>50</v>
       </c>
       <c r="J22">
@@ -2194,7 +2205,7 @@
       <c r="H24" t="s">
         <v>105</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1" t="s">
         <v>106</v>
       </c>
       <c r="J24">
@@ -2232,7 +2243,7 @@
       <c r="G25">
         <v>639</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J25">
@@ -2273,7 +2284,7 @@
       <c r="G26">
         <v>645</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1" t="s">
         <v>54</v>
       </c>
       <c r="J26">
@@ -2314,7 +2325,7 @@
       <c r="G27">
         <v>176</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1" t="s">
         <v>57</v>
       </c>
       <c r="J27">
@@ -2352,7 +2363,7 @@
       <c r="G28">
         <v>135</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J28">
@@ -2393,7 +2404,7 @@
       <c r="G29">
         <v>118</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1" t="s">
         <v>60</v>
       </c>
       <c r="J29">
@@ -2434,7 +2445,7 @@
       <c r="G30">
         <v>101</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1" t="s">
         <v>61</v>
       </c>
       <c r="J30">
@@ -2475,7 +2486,7 @@
       <c r="G31">
         <v>153</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1" t="s">
         <v>63</v>
       </c>
       <c r="J31">
@@ -2519,7 +2530,7 @@
       <c r="G32">
         <v>175</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
         <v>65</v>
       </c>
       <c r="J32">
@@ -2563,7 +2574,7 @@
       <c r="G33">
         <v>111</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J33">
@@ -2607,7 +2618,7 @@
       <c r="G34">
         <v>258</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1" t="s">
         <v>68</v>
       </c>
       <c r="J34">
@@ -2645,7 +2656,7 @@
       <c r="G35">
         <v>237</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1" t="s">
         <v>69</v>
       </c>
       <c r="J35">
@@ -2686,7 +2697,7 @@
       <c r="G36">
         <v>333</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1" t="s">
         <v>71</v>
       </c>
       <c r="J36">
@@ -2727,7 +2738,7 @@
       <c r="G37">
         <v>307</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="J37">
@@ -2768,7 +2779,7 @@
       <c r="G38">
         <v>307</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1" t="s">
         <v>75</v>
       </c>
       <c r="J38">
@@ -2809,7 +2820,7 @@
       <c r="G39">
         <v>5481</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1" t="s">
         <v>77</v>
       </c>
       <c r="J39">
@@ -2850,7 +2861,7 @@
       <c r="H40">
         <v>2</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1" t="s">
         <v>79</v>
       </c>
       <c r="J40">
@@ -2891,7 +2902,7 @@
       <c r="H41">
         <v>1</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1" t="s">
         <v>80</v>
       </c>
       <c r="J41">
@@ -2935,7 +2946,7 @@
       <c r="H42">
         <v>1</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="J42">
@@ -2979,7 +2990,7 @@
       <c r="H43">
         <v>1</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J43">
@@ -3020,7 +3031,7 @@
       <c r="H44">
         <v>2</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="1" t="s">
         <v>85</v>
       </c>
       <c r="J44">
@@ -3067,7 +3078,7 @@
       <c r="H45">
         <v>1</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1" t="s">
         <v>86</v>
       </c>
       <c r="J45">
@@ -3114,7 +3125,7 @@
       <c r="H46">
         <v>1</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J46">
@@ -3155,7 +3166,7 @@
       <c r="G47">
         <v>18521</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1" t="s">
         <v>90</v>
       </c>
       <c r="N47">
@@ -3207,7 +3218,7 @@
       <c r="G49">
         <v>6748</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1" t="s">
         <v>92</v>
       </c>
       <c r="J49">
@@ -3251,7 +3262,7 @@
       <c r="H50">
         <v>14</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J50">
@@ -3292,7 +3303,7 @@
       <c r="H51">
         <v>2</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1" t="s">
         <v>96</v>
       </c>
       <c r="J51">
@@ -3324,7 +3335,7 @@
       <c r="G52">
         <v>2080</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1" t="s">
         <v>100</v>
       </c>
       <c r="J52">
@@ -3430,7 +3441,7 @@
       <c r="G57">
         <v>254</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J57">

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
   <si>
     <t>Anlass</t>
   </si>
@@ -346,6 +346,12 @@
   </si>
   <si>
     <t>Bei Schwandegg in 46'</t>
+  </si>
+  <si>
+    <t>1:32:47.8</t>
+  </si>
+  <si>
+    <t>relativ warm</t>
   </si>
 </sst>
 </file>
@@ -1180,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O57"/>
+  <dimension ref="A1:O58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O48" sqref="O48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3146,31 +3152,46 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1600</v>
+        <v>21097.5</v>
       </c>
       <c r="F47">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="G47">
-        <v>18521</v>
+        <v>2372</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N47">
-        <v>76.5</v>
+        <v>109</v>
+      </c>
+      <c r="J47">
+        <v>82</v>
+      </c>
+      <c r="K47">
+        <v>552</v>
+      </c>
+      <c r="L47">
+        <v>509</v>
+      </c>
+      <c r="M47">
+        <v>3935</v>
+      </c>
+      <c r="O47" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -3184,62 +3205,50 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48">
         <v>1600</v>
       </c>
       <c r="F48">
-        <v>2019</v>
+        <v>2018</v>
+      </c>
+      <c r="G48">
+        <v>18521</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>90</v>
       </c>
       <c r="N48">
-        <v>75.400000000000006</v>
+        <v>76.5</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49">
-        <v>7200</v>
+        <v>1600</v>
       </c>
       <c r="F49">
-        <v>2018</v>
-      </c>
-      <c r="G49">
-        <v>6748</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="J49">
-        <v>11</v>
-      </c>
-      <c r="K49">
-        <v>103</v>
-      </c>
-      <c r="L49">
-        <v>63</v>
-      </c>
-      <c r="M49">
-        <v>456</v>
+        <v>2019</v>
       </c>
       <c r="N49">
-        <v>76.5</v>
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -3251,36 +3260,36 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>15000</v>
+        <v>7200</v>
       </c>
       <c r="F50">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G50">
-        <v>3050</v>
-      </c>
-      <c r="H50">
-        <v>14</v>
+        <v>6748</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J50">
-        <v>120</v>
+        <v>11</v>
       </c>
       <c r="K50">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="L50">
-        <v>718</v>
+        <v>63</v>
       </c>
       <c r="M50">
-        <v>3239</v>
+        <v>456</v>
+      </c>
+      <c r="N50">
+        <v>76.5</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -3292,36 +3301,39 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F51">
-        <v>2007</v>
+        <v>2013</v>
       </c>
       <c r="G51">
-        <v>32910</v>
+        <v>3050</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J51">
-        <v>4444</v>
+        <v>120</v>
+      </c>
+      <c r="K51">
+        <v>358</v>
       </c>
       <c r="L51">
-        <v>3413</v>
-      </c>
-      <c r="O51" t="s">
-        <v>97</v>
+        <v>718</v>
+      </c>
+      <c r="M51">
+        <v>3239</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -3329,31 +3341,34 @@
       <c r="D52">
         <v>0</v>
       </c>
+      <c r="E52">
+        <v>12000</v>
+      </c>
       <c r="F52">
-        <v>2014</v>
+        <v>2007</v>
       </c>
       <c r="G52">
-        <v>2080</v>
+        <v>32910</v>
+      </c>
+      <c r="H52">
+        <v>2</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="J52">
-        <v>10</v>
-      </c>
-      <c r="K52">
-        <v>58</v>
+        <v>4444</v>
       </c>
       <c r="L52">
-        <v>40</v>
-      </c>
-      <c r="M52">
-        <v>188</v>
+        <v>3413</v>
+      </c>
+      <c r="O52" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
         <v>99</v>
@@ -3365,12 +3380,30 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>2001</v>
+        <v>2014</v>
+      </c>
+      <c r="G53">
+        <v>2080</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J53">
+        <v>10</v>
+      </c>
+      <c r="K53">
+        <v>58</v>
+      </c>
+      <c r="L53">
+        <v>40</v>
+      </c>
+      <c r="M53">
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
         <v>99</v>
@@ -3382,7 +3415,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>2009</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -3399,7 +3432,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>2011</v>
+        <v>2009</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -3416,47 +3449,64 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2012</v>
+        <v>2011</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
+        <v>102</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>103</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57">
-        <v>0</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-      <c r="E57">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
         <v>21097.5</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <v>2018</v>
       </c>
-      <c r="G57">
+      <c r="G58">
         <v>254</v>
       </c>
-      <c r="I57" s="1" t="s">
+      <c r="I58" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J57">
+      <c r="J58">
         <v>5</v>
       </c>
-      <c r="K57">
+      <c r="K58">
         <v>54</v>
       </c>
-      <c r="L57">
+      <c r="L58">
         <v>5</v>
       </c>
-      <c r="M57">
+      <c r="M58">
         <v>54</v>
       </c>
-      <c r="N57">
+      <c r="N58">
         <v>76.7</v>
       </c>
     </row>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1186,10 +1186,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O48" sqref="O48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3510,6 +3511,17 @@
         <v>76.7</v>
       </c>
     </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/wettkaempfe.xlsx
+++ b/data/wettkaempfe.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_Personal\05_Sport\40_reporting\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\rufibach\01_personal\05_Sport\40_reporting\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="wettkaempfe" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="114">
   <si>
     <t>Anlass</t>
   </si>
@@ -352,6 +352,15 @@
   </si>
   <si>
     <t>relativ warm</t>
+  </si>
+  <si>
+    <t>Im Herbst, verschoben wegen Corona, reduziert</t>
+  </si>
+  <si>
+    <t>1:10:44.0</t>
+  </si>
+  <si>
+    <t>01:34:32.0</t>
   </si>
 </sst>
 </file>
@@ -1186,11 +1195,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O60"/>
+  <dimension ref="A1:O62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
+      <selection pane="bottomLeft" activeCell="A63" sqref="A63:XFD63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2227,51 +2236,57 @@
       <c r="M24">
         <v>8841</v>
       </c>
+      <c r="N24">
+        <v>76</v>
+      </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>16093</v>
+      </c>
+      <c r="F25">
+        <v>2021</v>
+      </c>
+      <c r="G25">
+        <v>8953</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25">
         <v>51</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>21097.5</v>
-      </c>
-      <c r="F25">
-        <v>2007</v>
-      </c>
-      <c r="G25">
-        <v>639</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="J25">
-        <v>20</v>
-      </c>
       <c r="K25">
-        <v>70</v>
+        <v>343</v>
       </c>
       <c r="L25">
-        <v>49</v>
+        <v>378</v>
       </c>
       <c r="M25">
-        <v>205</v>
+        <v>2965</v>
+      </c>
+      <c r="N25">
+        <v>77.400000000000006</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>111</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
@@ -2280,39 +2295,18 @@
         <v>0</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26">
-        <v>21097.5</v>
+        <v>1600</v>
       </c>
       <c r="F26">
-        <v>2008</v>
-      </c>
-      <c r="G26">
-        <v>645</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J26">
-        <v>27</v>
-      </c>
-      <c r="K26">
-        <v>79</v>
-      </c>
-      <c r="L26">
-        <v>58</v>
-      </c>
-      <c r="M26">
-        <v>211</v>
-      </c>
-      <c r="O26" t="s">
-        <v>55</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -2324,33 +2318,36 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>3700</v>
+        <v>21097.5</v>
       </c>
       <c r="F27">
-        <v>2011</v>
+        <v>2007</v>
       </c>
       <c r="G27">
-        <v>176</v>
+        <v>639</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="J27">
-        <v>46</v>
+        <v>20</v>
       </c>
       <c r="K27">
-        <v>130</v>
+        <v>70</v>
       </c>
       <c r="L27">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="M27">
-        <v>209</v>
+        <v>205</v>
+      </c>
+      <c r="O27" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
@@ -2362,31 +2359,31 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>3700</v>
+        <v>21097.5</v>
       </c>
       <c r="F28">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="G28">
-        <v>135</v>
+        <v>645</v>
       </c>
       <c r="I28" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J28">
+        <v>27</v>
+      </c>
+      <c r="K28">
+        <v>79</v>
+      </c>
+      <c r="L28">
         <v>58</v>
       </c>
-      <c r="J28">
-        <v>38</v>
-      </c>
-      <c r="K28">
-        <v>130</v>
-      </c>
-      <c r="L28">
-        <v>51</v>
-      </c>
       <c r="M28">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2406,28 +2403,25 @@
         <v>3700</v>
       </c>
       <c r="F29">
-        <v>2014</v>
+        <v>2011</v>
       </c>
       <c r="G29">
-        <v>118</v>
+        <v>176</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="J29">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="K29">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="L29">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="M29">
-        <v>121</v>
-      </c>
-      <c r="O29" t="s">
-        <v>59</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -2447,28 +2441,28 @@
         <v>3700</v>
       </c>
       <c r="F30">
-        <v>2015</v>
+        <v>2012</v>
       </c>
       <c r="G30">
-        <v>101</v>
+        <v>135</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J30">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="K30">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="L30">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="M30">
-        <v>155</v>
+        <v>200</v>
       </c>
       <c r="O30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -2488,31 +2482,28 @@
         <v>3700</v>
       </c>
       <c r="F31">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="G31">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J31">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="K31">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M31">
-        <v>193</v>
-      </c>
-      <c r="N31">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="O31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -2532,31 +2523,28 @@
         <v>3700</v>
       </c>
       <c r="F32">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G32">
-        <v>175</v>
+        <v>101</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J32">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="K32">
-        <v>116</v>
+        <v>88</v>
       </c>
       <c r="L32">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M32">
-        <v>228</v>
-      </c>
-      <c r="N32">
-        <v>76.900000000000006</v>
+        <v>155</v>
       </c>
       <c r="O32" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -2576,36 +2564,36 @@
         <v>3700</v>
       </c>
       <c r="F33">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="G33">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>107</v>
+        <v>63</v>
       </c>
       <c r="J33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="L33">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M33">
-        <v>243</v>
+        <v>193</v>
       </c>
       <c r="N33">
-        <v>76.599999999999994</v>
+        <v>76</v>
       </c>
       <c r="O33" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -2617,33 +2605,39 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>21097.5</v>
+        <v>3700</v>
       </c>
       <c r="F34">
-        <v>2011</v>
+        <v>2018</v>
       </c>
       <c r="G34">
-        <v>258</v>
+        <v>175</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J34">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K34">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="L34">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="M34">
-        <v>325</v>
+        <v>228</v>
+      </c>
+      <c r="N34">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="O34" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -2655,31 +2649,34 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>21097.5</v>
+        <v>3700</v>
       </c>
       <c r="F35">
-        <v>2012</v>
+        <v>2019</v>
       </c>
       <c r="G35">
-        <v>237</v>
+        <v>111</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
       <c r="J35">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="K35">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="L35">
-        <v>86</v>
+        <v>47</v>
       </c>
       <c r="M35">
-        <v>350</v>
+        <v>243</v>
+      </c>
+      <c r="N35">
+        <v>76.599999999999994</v>
       </c>
       <c r="O35" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -2699,33 +2696,30 @@
         <v>21097.5</v>
       </c>
       <c r="F36">
-        <v>2015</v>
+        <v>2011</v>
       </c>
       <c r="G36">
-        <v>333</v>
+        <v>258</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J36">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="K36">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="L36">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="M36">
-        <v>335</v>
-      </c>
-      <c r="O36" t="s">
-        <v>29</v>
+        <v>325</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2737,36 +2731,36 @@
         <v>0</v>
       </c>
       <c r="E37">
-        <v>3600</v>
+        <v>21097.5</v>
       </c>
       <c r="F37">
-        <v>2017</v>
+        <v>2012</v>
       </c>
       <c r="G37">
-        <v>307</v>
+        <v>237</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="J37">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="K37">
-        <v>46</v>
+        <v>97</v>
       </c>
       <c r="L37">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="M37">
-        <v>171</v>
-      </c>
-      <c r="N37">
-        <v>77.099999999999994</v>
+        <v>350</v>
+      </c>
+      <c r="O37" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -2778,36 +2772,36 @@
         <v>0</v>
       </c>
       <c r="E38">
-        <v>4800</v>
+        <v>21097.5</v>
       </c>
       <c r="F38">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="G38">
-        <v>307</v>
+        <v>333</v>
       </c>
       <c r="I38" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>89</v>
+      </c>
+      <c r="L38">
         <v>75</v>
       </c>
-      <c r="J38">
-        <v>15</v>
-      </c>
-      <c r="K38">
-        <v>43</v>
-      </c>
-      <c r="L38">
-        <v>45</v>
-      </c>
       <c r="M38">
-        <v>158</v>
-      </c>
-      <c r="N38">
-        <v>76.3</v>
+        <v>335</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
@@ -2819,33 +2813,36 @@
         <v>0</v>
       </c>
       <c r="E39">
-        <v>21097.5</v>
+        <v>3600</v>
       </c>
       <c r="F39">
-        <v>2004</v>
+        <v>2017</v>
       </c>
       <c r="G39">
-        <v>5481</v>
+        <v>307</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="J39">
-        <v>99</v>
+        <v>17</v>
       </c>
       <c r="K39">
-        <v>390</v>
+        <v>46</v>
       </c>
       <c r="L39">
-        <v>400</v>
+        <v>51</v>
       </c>
       <c r="M39">
-        <v>2241</v>
+        <v>171</v>
+      </c>
+      <c r="N39">
+        <v>77.099999999999994</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
@@ -2857,36 +2854,36 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>21097.5</v>
+        <v>4800</v>
       </c>
       <c r="F40">
-        <v>2011</v>
+        <v>2017</v>
       </c>
       <c r="G40">
-        <v>4610</v>
-      </c>
-      <c r="H40">
-        <v>2</v>
+        <v>307</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J40">
-        <v>163</v>
+        <v>15</v>
       </c>
       <c r="K40">
-        <v>1164</v>
+        <v>43</v>
       </c>
       <c r="L40">
-        <v>453</v>
+        <v>45</v>
       </c>
       <c r="M40">
-        <v>4123</v>
+        <v>158</v>
+      </c>
+      <c r="N40">
+        <v>76.3</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
@@ -2901,31 +2898,25 @@
         <v>21097.5</v>
       </c>
       <c r="F41">
-        <v>2012</v>
+        <v>2004</v>
       </c>
       <c r="G41">
-        <v>5640</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+        <v>5481</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J41">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="K41">
-        <v>1023</v>
+        <v>390</v>
       </c>
       <c r="L41">
-        <v>792</v>
+        <v>400</v>
       </c>
       <c r="M41">
-        <v>3744</v>
-      </c>
-      <c r="O41" t="s">
-        <v>81</v>
+        <v>2241</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -2945,31 +2936,28 @@
         <v>21097.5</v>
       </c>
       <c r="F42">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="G42">
-        <v>2884</v>
+        <v>4610</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J42">
-        <v>192</v>
+        <v>163</v>
       </c>
       <c r="K42">
-        <v>1169</v>
+        <v>1164</v>
       </c>
       <c r="L42">
-        <v>496</v>
+        <v>453</v>
       </c>
       <c r="M42">
-        <v>4163</v>
-      </c>
-      <c r="O42" t="s">
-        <v>83</v>
+        <v>4123</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -2989,28 +2977,31 @@
         <v>21097.5</v>
       </c>
       <c r="F43">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="G43">
-        <v>3865</v>
+        <v>5640</v>
       </c>
       <c r="H43">
         <v>1</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J43">
-        <v>171</v>
+        <v>261</v>
       </c>
       <c r="K43">
-        <v>1226</v>
+        <v>1023</v>
       </c>
       <c r="L43">
-        <v>470</v>
+        <v>792</v>
       </c>
       <c r="M43">
-        <v>4243</v>
+        <v>3744</v>
+      </c>
+      <c r="O43" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -3030,34 +3021,31 @@
         <v>21097.5</v>
       </c>
       <c r="F44">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="G44">
-        <v>3654</v>
+        <v>2884</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J44">
-        <v>60</v>
+        <v>192</v>
       </c>
       <c r="K44">
-        <v>601</v>
+        <v>1169</v>
       </c>
       <c r="L44">
-        <v>353</v>
+        <v>496</v>
       </c>
       <c r="M44">
-        <v>4071</v>
-      </c>
-      <c r="N44">
-        <v>76.5</v>
+        <v>4163</v>
       </c>
       <c r="O44" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -3077,34 +3065,28 @@
         <v>21097.5</v>
       </c>
       <c r="F45">
-        <v>2017</v>
+        <v>2014</v>
       </c>
       <c r="G45">
-        <v>3001</v>
+        <v>3865</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J45">
-        <v>61</v>
+        <v>171</v>
       </c>
       <c r="K45">
-        <v>594</v>
+        <v>1226</v>
       </c>
       <c r="L45">
-        <v>330</v>
+        <v>470</v>
       </c>
       <c r="M45">
-        <v>4163</v>
-      </c>
-      <c r="N45">
-        <v>76.3</v>
-      </c>
-      <c r="O45" t="s">
-        <v>29</v>
+        <v>4243</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -3124,31 +3106,34 @@
         <v>21097.5</v>
       </c>
       <c r="F46">
-        <v>2018</v>
+        <v>2015</v>
       </c>
       <c r="G46">
-        <v>2184</v>
+        <v>3654</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J46">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="K46">
-        <v>572</v>
+        <v>601</v>
       </c>
       <c r="L46">
-        <v>553</v>
+        <v>353</v>
       </c>
       <c r="M46">
-        <v>4031</v>
+        <v>4071</v>
+      </c>
+      <c r="N46">
+        <v>76.5</v>
       </c>
       <c r="O46" t="s">
-        <v>88</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -3168,88 +3153,127 @@
         <v>21097.5</v>
       </c>
       <c r="F47">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="G47">
-        <v>2372</v>
+        <v>3001</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="J47">
-        <v>82</v>
+        <v>61</v>
       </c>
       <c r="K47">
-        <v>552</v>
+        <v>594</v>
       </c>
       <c r="L47">
-        <v>509</v>
+        <v>330</v>
       </c>
       <c r="M47">
-        <v>3935</v>
+        <v>4163</v>
+      </c>
+      <c r="N47">
+        <v>76.3</v>
       </c>
       <c r="O47" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1600</v>
+        <v>21097.5</v>
       </c>
       <c r="F48">
         <v>2018</v>
       </c>
       <c r="G48">
-        <v>18521</v>
+        <v>2184</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="N48">
-        <v>76.5</v>
+        <v>87</v>
+      </c>
+      <c r="J48">
+        <v>91</v>
+      </c>
+      <c r="K48">
+        <v>572</v>
+      </c>
+      <c r="L48">
+        <v>553</v>
+      </c>
+      <c r="M48">
+        <v>4031</v>
+      </c>
+      <c r="O48" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E49">
-        <v>1600</v>
+        <v>21097.5</v>
       </c>
       <c r="F49">
         <v>2019</v>
       </c>
-      <c r="N49">
-        <v>75.400000000000006</v>
+      <c r="G49">
+        <v>2372</v>
+      </c>
+      <c r="H49">
+        <v>2</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="J49">
+        <v>82</v>
+      </c>
+      <c r="K49">
+        <v>552</v>
+      </c>
+      <c r="L49">
+        <v>509</v>
+      </c>
+      <c r="M49">
+        <v>3935</v>
+      </c>
+      <c r="O49" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -3261,118 +3285,91 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>7200</v>
+        <v>21097.5</v>
       </c>
       <c r="F50">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="G50">
-        <v>6748</v>
+        <v>3468</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="J50">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="K50">
-        <v>103</v>
+        <v>374</v>
       </c>
       <c r="L50">
-        <v>63</v>
+        <v>418</v>
       </c>
       <c r="M50">
-        <v>456</v>
+        <v>2797</v>
       </c>
       <c r="N50">
-        <v>76.5</v>
+        <v>77.8</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
         <v>0</v>
       </c>
       <c r="E51">
-        <v>15000</v>
+        <v>1600</v>
       </c>
       <c r="F51">
-        <v>2013</v>
+        <v>2018</v>
       </c>
       <c r="G51">
-        <v>3050</v>
-      </c>
-      <c r="H51">
-        <v>14</v>
+        <v>18521</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="J51">
-        <v>120</v>
-      </c>
-      <c r="K51">
-        <v>358</v>
-      </c>
-      <c r="L51">
-        <v>718</v>
-      </c>
-      <c r="M51">
-        <v>3239</v>
+        <v>90</v>
+      </c>
+      <c r="N51">
+        <v>76.5</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52">
-        <v>12000</v>
+        <v>1600</v>
       </c>
       <c r="F52">
-        <v>2007</v>
-      </c>
-      <c r="G52">
-        <v>32910</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="J52">
-        <v>4444</v>
-      </c>
-      <c r="L52">
-        <v>3413</v>
-      </c>
-      <c r="O52" t="s">
-        <v>97</v>
+        <v>2019</v>
+      </c>
+      <c r="N52">
+        <v>75.400000000000006</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -3380,34 +3377,40 @@
       <c r="D53">
         <v>0</v>
       </c>
+      <c r="E53">
+        <v>7200</v>
+      </c>
       <c r="F53">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="G53">
-        <v>2080</v>
+        <v>6748</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="J53">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K53">
-        <v>58</v>
+        <v>103</v>
       </c>
       <c r="L53">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="M53">
-        <v>188</v>
+        <v>456</v>
+      </c>
+      <c r="N53">
+        <v>76.5</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B54" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -3415,16 +3418,40 @@
       <c r="D54">
         <v>0</v>
       </c>
+      <c r="E54">
+        <v>15000</v>
+      </c>
       <c r="F54">
-        <v>2001</v>
+        <v>2013</v>
+      </c>
+      <c r="G54">
+        <v>3050</v>
+      </c>
+      <c r="H54">
+        <v>14</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J54">
+        <v>120</v>
+      </c>
+      <c r="K54">
+        <v>358</v>
+      </c>
+      <c r="L54">
+        <v>718</v>
+      </c>
+      <c r="M54">
+        <v>3239</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -3432,13 +3459,34 @@
       <c r="D55">
         <v>0</v>
       </c>
+      <c r="E55">
+        <v>12000</v>
+      </c>
       <c r="F55">
-        <v>2009</v>
+        <v>2007</v>
+      </c>
+      <c r="G55">
+        <v>32910</v>
+      </c>
+      <c r="H55">
+        <v>2</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J55">
+        <v>4444</v>
+      </c>
+      <c r="L55">
+        <v>3413</v>
+      </c>
+      <c r="O55" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>99</v>
@@ -3450,12 +3498,30 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>2011</v>
+        <v>2014</v>
+      </c>
+      <c r="G56">
+        <v>2080</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>58</v>
+      </c>
+      <c r="L56">
+        <v>40</v>
+      </c>
+      <c r="M56">
+        <v>188</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B57" t="s">
         <v>99</v>
@@ -3467,70 +3533,110 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>2012</v>
+        <v>2001</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" t="s">
+        <v>99</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>102</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="F60">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
         <v>103</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58">
-        <v>0</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-      <c r="E58">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
         <v>21097.5</v>
       </c>
-      <c r="F58">
+      <c r="F61">
         <v>2018</v>
       </c>
-      <c r="G58">
+      <c r="G61">
         <v>254</v>
       </c>
-      <c r="I58" s="1" t="s">
+      <c r="I61" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="J58">
+      <c r="J61">
         <v>5</v>
       </c>
-      <c r="K58">
+      <c r="K61">
         <v>54</v>
       </c>
-      <c r="L58">
+      <c r="L61">
         <v>5</v>
       </c>
-      <c r="M58">
+      <c r="M61">
         <v>54</v>
       </c>
-      <c r="N58">
+      <c r="N61">
         <v>76.7</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C59">
-        <v>0</v>
-      </c>
-      <c r="D59">
-        <v>0</v>
-      </c>
-      <c r="F59">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="F62">
         <v>2020</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C60">
-        <v>0</v>
-      </c>
-      <c r="D60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>2021</v>
       </c>
     </row>
   </sheetData>
